--- a/IPL/Sunrisers Hyderabad/Wriddhiman Saha †.xlsx
+++ b/IPL/Sunrisers Hyderabad/Wriddhiman Saha †.xlsx
@@ -408,13 +408,13 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C2" t="str">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D2" t="str">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E2" t="str">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" t="str">
         <v>1</v>
@@ -428,16 +428,16 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C3" t="str">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D3" t="str">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E3" t="str">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -448,13 +448,13 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C4" t="str">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D4" t="str">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" t="str">
         <v>1</v>
@@ -468,16 +468,16 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C5" t="str">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="D5" t="str">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E5" t="str">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/IPL/Sunrisers Hyderabad/Wriddhiman Saha †.xlsx
+++ b/IPL/Sunrisers Hyderabad/Wriddhiman Saha †.xlsx
@@ -408,13 +408,13 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C2" t="str">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D2" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <v>1</v>
@@ -428,16 +428,16 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C3" t="str">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D3" t="str">
         <v>45</v>
       </c>
       <c r="E3" t="str">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -448,13 +448,13 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C4" t="str">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D4" t="str">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E4" t="str">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" t="str">
         <v>1</v>
@@ -468,16 +468,16 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="C5" t="str">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D5" t="str">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E5" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
